--- a/data/case1/19/V1_1.xlsx
+++ b/data/case1/19/V1_1.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999304005949</v>
+        <v>0.99999998762278808</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99568626497210477</v>
+        <v>0.99417385683522586</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.97627857052605238</v>
+        <v>0.97318704609608653</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.96782492422485422</v>
+        <v>0.96357332751712432</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.95982885202282708</v>
+        <v>0.95437536625733133</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.94415955409712293</v>
+        <v>0.93387042941657294</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.94373032764480214</v>
+        <v>0.93130237090660917</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.9461855598637785</v>
+        <v>0.92702768374521705</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.95337093253449212</v>
+        <v>0.92420760498970633</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.9465712256077341</v>
+        <v>0.92231535823632316</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.94562638991242154</v>
+        <v>0.92203677776028337</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.94408453530077141</v>
+        <v>0.92176289694234448</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.93854416068597835</v>
+        <v>0.92349301805840511</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.93687297636719469</v>
+        <v>0.92548956753444866</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.93665597477771145</v>
+        <v>0.92841134910993861</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.9341496891639649</v>
+        <v>0.93229841170143279</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.93044197206837853</v>
+        <v>0.94340859884903017</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.92933307369024498</v>
+        <v>0.94229973203462269</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99463306473496571</v>
+        <v>0.99117740329712856</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.9875160617204588</v>
+        <v>0.97636358109617694</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.98611758138468031</v>
+        <v>0.9740244442037177</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.98485307750203765</v>
+        <v>0.97275993788555026</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.96924319766574529</v>
+        <v>0.96615157126888807</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.95622173012238809</v>
+        <v>0.95312997845951997</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.94976463791745624</v>
+        <v>0.94667288152647799</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.9408744219192291</v>
+        <v>0.93128198511900484</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.93654237636044035</v>
+        <v>0.92792165869992704</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.91958210986863342</v>
+        <v>0.91517674648943581</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.90431204890210348</v>
+        <v>0.90636574452695196</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.89774192980580236</v>
+        <v>0.90233167657095925</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.89008838142274871</v>
+        <v>0.90335196343741386</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.88840907850606299</v>
+        <v>0.90489170464442381</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.88788907456198185</v>
+        <v>0.90437171199059951</v>
       </c>
     </row>
   </sheetData>
